--- a/New Url.xlsx
+++ b/New Url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="27945" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="159">
   <si>
     <t>JavaScript framework, language</t>
   </si>
@@ -315,18 +315,213 @@
   <si>
     <t>https://www.mumz.cz/</t>
   </si>
+  <si>
+    <t>https://mockrocket.io/</t>
+  </si>
+  <si>
+    <t>React, Chakra UI, Three.js</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/</t>
+  </si>
+  <si>
+    <t>React, bootstrap</t>
+  </si>
+  <si>
+    <t>appmachine.com</t>
+  </si>
+  <si>
+    <t>mobile app builder</t>
+  </si>
+  <si>
+    <t>https://www.ellty.com/en</t>
+  </si>
+  <si>
+    <t>React, Next, Node.js, MUI</t>
+  </si>
+  <si>
+    <t>https://www.goodbarber.com/</t>
+  </si>
+  <si>
+    <t>https://fundednext.com/</t>
+  </si>
+  <si>
+    <t>React, Next.js, Node.js, Tailwind CSS, stripe</t>
+  </si>
+  <si>
+    <t>https://www.makemytrip.com/</t>
+  </si>
+  <si>
+    <t>wordpress</t>
+  </si>
+  <si>
+    <t>https://uniontestprep.com/</t>
+  </si>
+  <si>
+    <t>Ruby on Rails, Tailwind CSS</t>
+  </si>
+  <si>
+    <t>https://28dayreboot.co/</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
+  </si>
+  <si>
+    <t>https://saasprofitsprint.com/</t>
+  </si>
+  <si>
+    <t>Wordpress, GA4</t>
+  </si>
+  <si>
+    <t>https://whitetobrownbelt.com/</t>
+  </si>
+  <si>
+    <t>https://www.wegetanystock.com/</t>
+  </si>
+  <si>
+    <t>Laravel, GA4, Nginx, Tailwind CSS</t>
+  </si>
+  <si>
+    <t>https://www.worlddealtraders.com/</t>
+  </si>
+  <si>
+    <t>https://www.cycle.app/</t>
+  </si>
+  <si>
+    <t>Webflow, jQuery</t>
+  </si>
+  <si>
+    <t>https://queaker.webflow.io/</t>
+  </si>
+  <si>
+    <t>Webflow</t>
+  </si>
+  <si>
+    <t>https://www.headspace.com/</t>
+  </si>
+  <si>
+    <t>React, Gats by, Emotion, Amazon S3, AWS, Amazon CloudFront</t>
+  </si>
+  <si>
+    <t>https://www.wgmilabs.com/</t>
+  </si>
+  <si>
+    <t>www.premierere.com.au</t>
+  </si>
+  <si>
+    <t>Wordpress, Real estate</t>
+  </si>
+  <si>
+    <t>www.avenuewest.com.au</t>
+  </si>
+  <si>
+    <t>www.pheonixra.com.au</t>
+  </si>
+  <si>
+    <t>www.yknea.com.au</t>
+  </si>
+  <si>
+    <t>www.puckdoku.com</t>
+  </si>
+  <si>
+    <t>trivia game</t>
+  </si>
+  <si>
+    <t>www.immaculategrid.com</t>
+  </si>
+  <si>
+    <t>https://www.recgroup.com/en</t>
+  </si>
+  <si>
+    <t>https://www.meyerburger.com/en/</t>
+  </si>
+  <si>
+    <t>https://www.aeg-industrialsolar.de/</t>
+  </si>
+  <si>
+    <t>https://www.aptossolar.com/</t>
+  </si>
+  <si>
+    <t>https://www.solaria.com/</t>
+  </si>
+  <si>
+    <t>https://10web.io/</t>
+  </si>
+  <si>
+    <t>Wordpress, Wordpress builder</t>
+  </si>
+  <si>
+    <t>https://grandvenue.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wordpress, </t>
+  </si>
+  <si>
+    <t>https://www.taglyancomplex.com/</t>
+  </si>
+  <si>
+    <t>https://www.acgdirect.com/</t>
+  </si>
+  <si>
+    <t>Wix, React, GA4</t>
+  </si>
+  <si>
+    <t>https://www.caresync.co.uk/</t>
+  </si>
+  <si>
+    <t>https://redpoints.com/</t>
+  </si>
+  <si>
+    <t>https://www.zerofox.com/</t>
+  </si>
+  <si>
+    <t>https://www.brandshield.com/</t>
+  </si>
+  <si>
+    <t>https://www.zestyagency.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.blaisetransit.com/</t>
+  </si>
+  <si>
+    <t>https://www.glashausracing.com/</t>
+  </si>
+  <si>
+    <t>Wix, React, Healthcare</t>
+  </si>
+  <si>
+    <t>https://medq.io/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/</t>
+  </si>
+  <si>
+    <t>React, Python, Django, GA4</t>
+  </si>
+  <si>
+    <t>https://humantraffickinghotline.org/</t>
+  </si>
+  <si>
+    <t>Drupal</t>
+  </si>
+  <si>
+    <t>Three.js</t>
+  </si>
+  <si>
+    <t>https://jesse-zhou.com/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,15 +552,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,37 +631,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,31 +652,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,24 +673,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,31 +732,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,13 +876,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,121 +894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +923,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -739,20 +974,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,6 +1006,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -782,196 +1023,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,73 +1195,76 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1330,10 +1535,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1455,7 +1660,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
@@ -1471,7 +1676,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B12" t="s">
@@ -1527,7 +1732,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B20" t="s">
@@ -1546,12 +1751,12 @@
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B23" t="s">
@@ -1582,7 +1787,7 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1592,17 +1797,17 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="A30" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1612,7 +1817,7 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1630,7 +1835,7 @@
       <c r="A35" s="10"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1640,7 +1845,7 @@
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1648,15 +1853,15 @@
       <c r="A40" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="A41" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1669,12 +1874,12 @@
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B44" t="s">
@@ -1682,10 +1887,10 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1759,6 +1964,345 @@
     <row r="59" spans="1:1">
       <c r="A59" s="7" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +2317,7 @@
     <hyperlink ref="A23" r:id="rId8" display="https://victorytoto.com/" tooltip="https://victorytoto.com/"/>
     <hyperlink ref="A19" r:id="rId9" display="https://www.radikal.studio/"/>
     <hyperlink ref="A21" r:id="rId10" display="https://www.rosecut.com/" tooltip="https://www.rosecut.com/"/>
-    <hyperlink ref="A29" r:id="rId11" display="https://stg-dev.crmgrow.com"/>
+    <hyperlink ref="A29" r:id="rId11" display="https://stg-dev.crmgrow.com" tooltip="https://stg-dev.crmgrow.com"/>
     <hyperlink ref="A33" r:id="rId12" display="https://apps.apple.com/sa/app/charma/id1508370535" tooltip="https://apps.apple.com/sa/app/charma/id1508370535"/>
     <hyperlink ref="A34" r:id="rId13" display="https://play.google.com/store/apps/details?id=com.appcharm.www.charm_flutter&amp;hl=ar&amp;gl=US" tooltip="https://play.google.com/store/apps/details?id=com.appcharm.www.charm_flutter&amp;hl=ar&amp;gl=US"/>
     <hyperlink ref="A44" r:id="rId14" display="https://www.fotojet.com/" tooltip="https://www.fotojet.com/"/>
@@ -1781,7 +2325,7 @@
     <hyperlink ref="A45" r:id="rId15" display="https://www.adjust.com/" tooltip="https://www.adjust.com/"/>
     <hyperlink ref="A55" r:id="rId16" display="https://www.mr-resistor.co.uk/"/>
     <hyperlink ref="A56" r:id="rId17" display="http://houseofmagnets.com/"/>
-    <hyperlink ref="A57" r:id="rId18" display="https://www.pharmdlive.com/"/>
+    <hyperlink ref="A57" r:id="rId18" display="https://www.pharmdlive.com/" tooltip="https://www.pharmdlive.com/"/>
     <hyperlink ref="A58" r:id="rId19" display="https://staffitpro.de/"/>
     <hyperlink ref="A59" r:id="rId20" display="https://www.mumz.cz/" tooltip="https://www.mumz.cz/"/>
     <hyperlink ref="A54" r:id="rId21" display="http://prymetrics.ysoftsolution.com/" tooltip="http://prymetrics.ysoftsolution.com/"/>
@@ -1789,6 +2333,45 @@
     <hyperlink ref="B40" r:id="rId23" display="https://mymanager.com/" tooltip="https://mymanager.com/"/>
     <hyperlink ref="B41" r:id="rId24" display="hq@madforchicken.com" tooltip="mailto:hq@madforchicken.com"/>
     <hyperlink ref="A51" r:id="rId25" display="https://apps.apple.com/us/app/crmgrow/id1588289906"/>
+    <hyperlink ref="A61" r:id="rId26" display="https://leetcode.com/"/>
+    <hyperlink ref="A64" r:id="rId27" display="https://www.ellty.com/en"/>
+    <hyperlink ref="A65" r:id="rId28" display="https://www.goodbarber.com/" tooltip="https://www.goodbarber.com/"/>
+    <hyperlink ref="A66" r:id="rId29" display="https://fundednext.com/" tooltip="https://fundednext.com/"/>
+    <hyperlink ref="A68" r:id="rId30" display="https://www.makemytrip.com/" tooltip="https://www.makemytrip.com/"/>
+    <hyperlink ref="A69" r:id="rId31" display="https://uniontestprep.com/"/>
+    <hyperlink ref="A10" r:id="rId32" display="https://peergame.com/"/>
+    <hyperlink ref="A12" r:id="rId33" display="https://www.funguyscnft.com/"/>
+    <hyperlink ref="A71" r:id="rId34" display="https://28dayreboot.co/" tooltip="https://28dayreboot.co/"/>
+    <hyperlink ref="A72" r:id="rId35" display="https://saasprofitsprint.com/" tooltip="https://saasprofitsprint.com/"/>
+    <hyperlink ref="A73" r:id="rId36" display="https://whitetobrownbelt.com/"/>
+    <hyperlink ref="A75" r:id="rId37" display="https://www.wegetanystock.com/"/>
+    <hyperlink ref="A76" r:id="rId38" display="https://www.worlddealtraders.com/"/>
+    <hyperlink ref="A78" r:id="rId39" display="https://queaker.webflow.io/"/>
+    <hyperlink ref="A79" r:id="rId40" display="https://www.headspace.com/" tooltip="https://www.headspace.com/"/>
+    <hyperlink ref="A77" r:id="rId41" display="https://www.cycle.app/" tooltip="https://www.cycle.app/"/>
+    <hyperlink ref="A80" r:id="rId42" display="https://www.wgmilabs.com/"/>
+    <hyperlink ref="A82" r:id="rId43" display="www.premierere.com.au"/>
+    <hyperlink ref="A83" r:id="rId44" display="www.avenuewest.com.au"/>
+    <hyperlink ref="A84" r:id="rId45" display="www.pheonixra.com.au"/>
+    <hyperlink ref="A85" r:id="rId46" display="www.yknea.com.au" tooltip="http://www.yknea.com.au"/>
+    <hyperlink ref="A87" r:id="rId47" display="www.puckdoku.com"/>
+    <hyperlink ref="A88" r:id="rId48" display="www.immaculategrid.com"/>
+    <hyperlink ref="A90" r:id="rId49" display="https://www.recgroup.com/en" tooltip="https://www.recgroup.com/en"/>
+    <hyperlink ref="A91" r:id="rId50" display="https://www.meyerburger.com/en/" tooltip="https://www.meyerburger.com/en/"/>
+    <hyperlink ref="A92" r:id="rId51" display="https://www.aeg-industrialsolar.de/" tooltip="https://www.aeg-industrialsolar.de/"/>
+    <hyperlink ref="A93" r:id="rId52" display="https://www.aptossolar.com/" tooltip="https://www.aptossolar.com/"/>
+    <hyperlink ref="A94" r:id="rId53" display="https://www.solaria.com/" tooltip="https://www.solaria.com/"/>
+    <hyperlink ref="A95" r:id="rId54" display="https://10web.io/" tooltip="https://10web.io/"/>
+    <hyperlink ref="A99" r:id="rId55" display="https://www.acgdirect.com/"/>
+    <hyperlink ref="A105" r:id="rId56" display="https://www.zestyagency.com.au/" tooltip="https://www.zestyagency.com.au/"/>
+    <hyperlink ref="A106" r:id="rId57" display="https://www.blaisetransit.com/" tooltip="https://www.blaisetransit.com/"/>
+    <hyperlink ref="A107" r:id="rId58" display="https://www.glashausracing.com/" tooltip="https://www.glashausracing.com/"/>
+    <hyperlink ref="A110" r:id="rId59" display="https://medq.io/"/>
+    <hyperlink ref="A30" r:id="rId60" display="super@crmgrow.com"/>
+    <hyperlink ref="A100" r:id="rId61" display="https://www.caresync.co.uk/"/>
+    <hyperlink ref="A41" r:id="rId62" display="mymember@123"/>
+    <hyperlink ref="A109" r:id="rId61" display="https://www.caresync.co.uk/"/>
+    <hyperlink ref="A116" r:id="rId63" display="https://jesse-zhou.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
